--- a/Fase3_ValueBettingAnalysis/RFOutliers/PercentagePointDifference/50pointDifferenceOutliers.xlsx
+++ b/Fase3_ValueBettingAnalysis/RFOutliers/PercentagePointDifference/50pointDifferenceOutliers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,6 +589,21 @@
           <t>DiffA</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>%DiffH</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>%DiffD</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>%DiffA</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -692,6 +707,15 @@
       <c r="AE2" t="n">
         <v>-0.4154383566173795</v>
       </c>
+      <c r="AF2" t="n">
+        <v>297.2426567661552</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-39.95324432670635</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-70.12614584001814</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -795,6 +819,15 @@
       <c r="AE3" t="n">
         <v>0.5301792133758065</v>
       </c>
+      <c r="AF3" t="n">
+        <v>-52.32509961036609</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-95.24576148641415</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>263.7469173021236</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -897,6 +930,15 @@
       </c>
       <c r="AE4" t="n">
         <v>0.5415994450008064</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-65.19330562944532</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-92.47009024131722</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>187.8231032142664</v>
       </c>
     </row>
   </sheetData>
